--- a/Fukuyama/スケジュール管理/スケジュール表.xlsx
+++ b/Fukuyama/スケジュール管理/スケジュール表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -98,16 +98,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FPS調整・萩原</t>
-    <rPh sb="3" eb="5">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハギワラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -718,6 +708,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,21 +777,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,15 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,20 +1160,20 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="G2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="G2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
+      <c r="M2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="V2" s="8"/>
@@ -1193,16 +1183,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="V3" s="8"/>
@@ -1211,16 +1201,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -1230,16 +1220,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -1247,18 +1237,18 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="6"/>
@@ -1266,18 +1256,18 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="U7" s="6"/>
@@ -1286,18 +1276,18 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="V8" s="8"/>
@@ -1381,11 +1371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1476,18 +1466,18 @@
       <c r="L2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="30" t="s">
         <v>25</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1499,11 +1489,11 @@
       <c r="L3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="23"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1516,157 +1506,145 @@
       <c r="L4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="23"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
+      <c r="M5" s="6"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="23"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="31"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>12</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="23"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="31"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
+      <c r="M7" s="7"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="23"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="31"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="6"/>
+        <v>8</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="5"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="23"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="31"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="23"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="31"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="5"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="23"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="31"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="6"/>
+        <v>11</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="5"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="23"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="31"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="23"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="24"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="32"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1716,15 +1694,12 @@
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="T2:T13"/>
-    <mergeCell ref="U2:U13"/>
-    <mergeCell ref="W2:W13"/>
-    <mergeCell ref="X2:X13"/>
+    <mergeCell ref="T2:T12"/>
+    <mergeCell ref="U2:U12"/>
+    <mergeCell ref="W2:W12"/>
+    <mergeCell ref="X2:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1738,7 +1713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1824,168 +1799,168 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>37</v>
+      <c r="T2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="V2" s="8"/>
-      <c r="W2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>26</v>
+      <c r="W2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="31"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="34"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="20"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+        <v>37</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="31"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="34"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="20"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="28"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="11"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="31"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="34"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="20"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="28"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="31"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="34"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="20"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="28"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="26"/>
+      <c r="M7" s="11"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="31"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="34"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="20"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="28"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="26"/>
+      <c r="M8" s="11"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="31"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="34"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="20"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="28"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="N9" s="27"/>
+      <c r="N9" s="12"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="31"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="34"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="20"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="28"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="31"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="34"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="20"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="28"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="29"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="31"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="34"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="20"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="28"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1993,121 +1968,121 @@
       <c r="L12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="31"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="34"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="20"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="28"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="31"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="34"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="20"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="28"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="A14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="31"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="34"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="20"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="28"/>
     </row>
     <row r="15" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="11"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="31"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="34"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="20"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="28"/>
     </row>
     <row r="16" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="J16" s="11"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="31"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="34"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="20"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="28"/>
     </row>
     <row r="17" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="J17" s="11"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="26"/>
+      <c r="M17" s="11"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="31"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="34"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="20"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="28"/>
     </row>
     <row r="18" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="31"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="34"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="20"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="28"/>
     </row>
     <row r="19" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="32"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="35"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="21"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="29"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
